--- a/picks_yahoo_custom_20251104.xlsx
+++ b/picks_yahoo_custom_20251104.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,31 +478,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.48999999999999</v>
+        <v>207.18</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RSI 40</t>
+          <t>均线多头 | RSI 77 | 20日动量+15.4% | RS 100 | 机构买入 | 高7日量(1.5)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40.2</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>254</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 78 | 20日动量+15.0% | RS 81 | 机构买入</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>785.52</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 56 | RS 84</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H4" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 53 | RS 73</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>108.06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 55 | RS 78</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>237.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 68 | RS 100</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>101.61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 56 | RS 91</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H8" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>259.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 72 | 20日动量+27.5% | RS 100</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>163.65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 65 | RS 96</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>304.86</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 58 | RS 97</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H11" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>362.55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 60 | RS 95</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H12" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>186.26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>均线多头 | RSI 37</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
